--- a/va_facility_data_2025-02-20/Oklahoma City VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Oklahoma%20City%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Oklahoma City VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Oklahoma%20City%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R220a54fa6adf41d6b52662f9c55481a3"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R7d2ba55c619a44d0bf84ef74d6894c7e"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R9bbb269938d44810a5b7bf1e7bbfdcad"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R2b152f395e604fc1bceac608b2d23273"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R9455d1a0dfe446129c874fc571ed446f"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R01305d81a0c2431bacb240a01551d730"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rf74574ae56c5464bad0cd42cba822c94"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Refd8d0eb95cd4343a9d2bd440ef85036"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R4b0b9bec2e0d4792ab653a6f069179d5"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rc2494043358d463193d23cdeb0256e2e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R0e1e6d1379704f049ec3e55a8b2150cc"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R764509e3ea294edbab0852b295142da8"/>
   </x:sheets>
 </x:workbook>
 </file>
